--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>Academic Group</t>
   </si>
@@ -25,12 +25,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
     <t>Current Acad Plan</t>
   </si>
   <si>
@@ -115,24 +109,6 @@
     <t>0c76c1d6d40427dfff55045ef03ac597636d1054f5aed7dadc2e174fb64de794</t>
   </si>
   <si>
-    <t>Soleymani</t>
-  </si>
-  <si>
-    <t>Doe</t>
-  </si>
-  <si>
-    <t>Paul</t>
-  </si>
-  <si>
-    <t>Emil</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Jared</t>
-  </si>
-  <si>
     <t>ENGINEERC1</t>
   </si>
   <si>
@@ -169,7 +145,7 @@
     <t>COMPENG_CO</t>
   </si>
   <si>
-    <t>soleymae@mcmaster.ca</t>
+    <t>9c86b02f9f3eee3a494d826adaa1d43f7e2a5fa12b7dea83f6a4de7fc431b64b</t>
   </si>
 </sst>
 </file>
@@ -527,13 +503,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB4"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:26">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,14 +585,8 @@
       <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:26">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -624,79 +594,73 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2">
+        <v>2229</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" t="s">
+      <c r="K2" t="s">
         <v>36</v>
       </c>
-      <c r="G2" t="s">
+      <c r="L2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>12</v>
+      </c>
+      <c r="Q2">
+        <v>37</v>
+      </c>
+      <c r="R2" t="s">
         <v>39</v>
       </c>
-      <c r="H2">
-        <v>2229</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="S2">
+        <v>9999</v>
+      </c>
+      <c r="T2">
+        <v>13</v>
+      </c>
+      <c r="U2" t="s">
         <v>40</v>
       </c>
-      <c r="K2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>12</v>
-      </c>
-      <c r="S2">
-        <v>37</v>
-      </c>
-      <c r="T2" t="s">
-        <v>47</v>
-      </c>
-      <c r="U2">
-        <v>9999</v>
-      </c>
       <c r="V2">
-        <v>13</v>
-      </c>
-      <c r="W2" t="s">
-        <v>48</v>
-      </c>
-      <c r="X2">
         <v>90</v>
       </c>
-      <c r="Y2">
+      <c r="W2">
         <v>15</v>
       </c>
+      <c r="X2" t="s">
+        <v>39</v>
+      </c>
       <c r="Z2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:26">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -704,79 +668,73 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3">
+        <v>2229</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
         <v>34</v>
       </c>
-      <c r="F3" t="s">
+      <c r="K3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" t="s">
         <v>37</v>
       </c>
-      <c r="G3" t="s">
+      <c r="M3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>12</v>
+      </c>
+      <c r="Q3">
+        <v>37</v>
+      </c>
+      <c r="R3" t="s">
         <v>39</v>
       </c>
-      <c r="H3">
-        <v>2229</v>
-      </c>
-      <c r="I3">
-        <v>8</v>
-      </c>
-      <c r="J3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="S3">
+        <v>9999</v>
+      </c>
+      <c r="T3">
+        <v>39</v>
+      </c>
+      <c r="U3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V3">
+        <v>150</v>
+      </c>
+      <c r="W3">
         <v>44</v>
       </c>
-      <c r="N3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>12</v>
-      </c>
-      <c r="S3">
-        <v>37</v>
-      </c>
-      <c r="T3" t="s">
-        <v>47</v>
-      </c>
-      <c r="U3">
-        <v>9999</v>
-      </c>
-      <c r="V3">
+      <c r="X3" t="s">
         <v>39</v>
       </c>
-      <c r="W3" t="s">
-        <v>49</v>
-      </c>
-      <c r="X3">
-        <v>150</v>
-      </c>
-      <c r="Y3">
-        <v>44</v>
-      </c>
       <c r="Z3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:26">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -784,76 +742,70 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4">
+        <v>2229</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
         <v>32</v>
       </c>
-      <c r="E4" t="s">
+      <c r="I4" t="s">
         <v>35</v>
       </c>
-      <c r="F4" t="s">
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" t="s">
         <v>38</v>
       </c>
-      <c r="G4" t="s">
+      <c r="N4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>12</v>
+      </c>
+      <c r="Q4">
+        <v>37</v>
+      </c>
+      <c r="R4" t="s">
         <v>39</v>
       </c>
-      <c r="H4">
-        <v>2229</v>
-      </c>
-      <c r="I4">
-        <v>10</v>
-      </c>
-      <c r="J4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="S4">
+        <v>9999</v>
+      </c>
+      <c r="T4">
+        <v>53</v>
+      </c>
+      <c r="U4" t="s">
+        <v>42</v>
+      </c>
+      <c r="V4">
+        <v>120</v>
+      </c>
+      <c r="W4">
+        <v>57</v>
+      </c>
+      <c r="X4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z4" t="s">
         <v>43</v>
-      </c>
-      <c r="M4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" t="s">
-        <v>46</v>
-      </c>
-      <c r="P4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>12</v>
-      </c>
-      <c r="S4">
-        <v>37</v>
-      </c>
-      <c r="T4" t="s">
-        <v>47</v>
-      </c>
-      <c r="U4">
-        <v>9999</v>
-      </c>
-      <c r="V4">
-        <v>53</v>
-      </c>
-      <c r="W4" t="s">
-        <v>50</v>
-      </c>
-      <c r="X4">
-        <v>120</v>
-      </c>
-      <c r="Y4">
-        <v>57</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
